--- a/data/Excel Format/relations/Interested.xlsx
+++ b/data/Excel Format/relations/Interested.xlsx
@@ -23,7 +23,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -33,11 +33,20 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -60,16 +69,22 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -283,14 +298,17 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.71"/>
     <col customWidth="1" min="2" max="2" width="26.71"/>
     <col customWidth="1" min="3" max="3" width="24.29"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col customWidth="1" min="4" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -302,274 +320,274 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>9.6667175E7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>101.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>9.6667175E7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>111.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>9.6667175E7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>126.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>7.356463E7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>125.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>7.356463E7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>124.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>7.356463E7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>123.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>7.356463E7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>122.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>5.1458338E7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>111.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>4.5453885E7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>112.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>4.5453885E7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>113.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>4.5453885E7</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>114.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>4.5453885E7</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>115.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>7.9689206E7</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>116.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>7.9689206E7</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>117.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>7.9689206E7</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>118.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>6.7496942E7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>119.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>6.7496942E7</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>128.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>6.7496942E7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>129.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>6.7496942E7</v>
       </c>
-      <c r="C20" s="2">
-        <v>130.0</v>
+      <c r="C20" s="3">
+        <v>103.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>4.0128931E7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22" s="2">
+        <v>4.0128931E7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23" s="2">
+        <v>4.0128931E7</v>
+      </c>
+      <c r="C23" s="3">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24" s="1">
+        <v>1.976751E7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="2">
+        <v>1.976751E7</v>
+      </c>
+      <c r="C25" s="3">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="1">
+        <v>8.3950021E7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="2">
+        <v>8.3950021E7</v>
+      </c>
+      <c r="C27" s="1">
         <v>131.0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="3">
-        <v>4.0128931E7</v>
-      </c>
-      <c r="C22" s="2">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="2">
+        <v>8.3950021E7</v>
+      </c>
+      <c r="C28" s="1">
         <v>132.0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="3">
-        <v>4.0128931E7</v>
-      </c>
-      <c r="C23" s="2">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="2">
+        <v>8.3950021E7</v>
+      </c>
+      <c r="C29" s="1">
         <v>133.0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="2">
-        <v>1.976751E7</v>
-      </c>
-      <c r="C24" s="2">
-        <v>134.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="3">
-        <v>1.976751E7</v>
-      </c>
-      <c r="C25" s="2">
-        <v>135.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="2">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="2">
         <v>8.3950021E7</v>
       </c>
-      <c r="C26" s="2">
-        <v>113.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="3">
+      <c r="C30" s="1">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="2">
         <v>8.3950021E7</v>
       </c>
-      <c r="C27" s="2">
-        <v>131.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="3">
-        <v>8.3950021E7</v>
-      </c>
-      <c r="C28" s="2">
-        <v>132.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="3">
-        <v>8.3950021E7</v>
-      </c>
-      <c r="C29" s="2">
-        <v>133.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="3">
-        <v>8.3950021E7</v>
-      </c>
-      <c r="C30" s="2">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="3">
-        <v>8.3950021E7</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>128.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>9.126056E7</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>112.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>9.126056E7</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>119.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>9.126056E7</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>114.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>6.0653931E7</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>135.0</v>
       </c>
     </row>
@@ -577,144 +595,823 @@
       <c r="B36" s="1">
         <v>6.0653931E7</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>129.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>6.0653931E7</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>101.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>6.0653931E7</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>116.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>6.0653931E7</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>112.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>2.2779613E7</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>111.0</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="B41" s="4">
+        <v>1.3336678E7</v>
+      </c>
+      <c r="C41" s="5">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="4">
+        <v>2.1217676E7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="4">
+        <v>3.4566543E7</v>
+      </c>
+      <c r="C43" s="1">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="4">
+        <v>3.7486905E7</v>
+      </c>
+      <c r="C44" s="1">
+        <v>113.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="4">
+        <v>9.2514073E7</v>
+      </c>
+      <c r="C45" s="1">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="B46" s="4">
+        <v>1.0871349E7</v>
+      </c>
+      <c r="C46" s="1">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="B47" s="4">
+        <v>6.2389417E7</v>
+      </c>
+      <c r="C47" s="1">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="B48" s="4">
+        <v>2.9586401E7</v>
+      </c>
+      <c r="C48" s="1">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="B49" s="4">
+        <v>5.4173986E7</v>
+      </c>
+      <c r="C49" s="1">
+        <v>118.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="B50" s="4">
+        <v>7.5628493E7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="B51" s="4">
+        <v>2.3849065E7</v>
+      </c>
+      <c r="C51" s="1">
+        <v>128.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="B52" s="4">
+        <v>9.6017348E7</v>
+      </c>
+      <c r="C52" s="1">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="B53" s="4">
+        <v>1.8235964E7</v>
+      </c>
+      <c r="C53" s="5">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="B54" s="4">
+        <v>1.8235964E7</v>
+      </c>
+      <c r="C54" s="5">
+        <v>126.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="B55" s="4">
+        <v>1.8235964E7</v>
+      </c>
+      <c r="C55" s="5">
+        <v>122.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="B56" s="4">
+        <v>6.5971234E7</v>
+      </c>
+      <c r="C56" s="1">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="B57" s="4">
+        <v>4.8326591E7</v>
+      </c>
+      <c r="C57" s="1">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="B58" s="4">
+        <v>7.1420935E7</v>
+      </c>
+      <c r="C58" s="1">
+        <v>126.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="B59" s="4">
+        <v>5.2613498E7</v>
+      </c>
+      <c r="C59" s="1">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="B60" s="4">
+        <v>3.9827615E7</v>
+      </c>
+      <c r="C60" s="1">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="B61" s="4">
+        <v>4.333499E7</v>
+      </c>
+      <c r="C61" s="1">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="B62" s="4">
+        <v>2.8349567E7</v>
+      </c>
+      <c r="C62" s="1">
+        <v>118.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="B63" s="4">
+        <v>9.1827364E7</v>
+      </c>
+      <c r="C63" s="1">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="B64" s="4">
+        <v>7.2819365E7</v>
+      </c>
+      <c r="C64" s="1">
+        <v>128.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="B65" s="4">
+        <v>3.7482931E7</v>
+      </c>
+      <c r="C65" s="1">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="B66" s="4">
+        <v>3.7482931E7</v>
+      </c>
+      <c r="C66" s="3">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="B67" s="4">
+        <v>3.7482931E7</v>
+      </c>
+      <c r="C67" s="3">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="B68" s="4">
+        <v>6.4927183E7</v>
+      </c>
+      <c r="C68" s="3">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="B69" s="4">
+        <v>1.837294E7</v>
+      </c>
+      <c r="C69" s="1">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="B70" s="4">
+        <v>5.2468719E7</v>
+      </c>
+      <c r="C70" s="1">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="B71" s="4">
+        <v>2.837491E7</v>
+      </c>
+      <c r="C71" s="1">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="B72" s="4">
+        <v>1.8472039E7</v>
+      </c>
+      <c r="C72" s="1">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="B73" s="4">
+        <v>8.5719236E7</v>
+      </c>
+      <c r="C73" s="1">
+        <v>118.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="B74" s="4">
+        <v>4.9283617E7</v>
+      </c>
+      <c r="C74" s="1">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="B75" s="4">
+        <v>2.837461E7</v>
+      </c>
+      <c r="C75" s="5">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="B76" s="4">
+        <v>2.837461E7</v>
+      </c>
+      <c r="C76" s="5">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="B77" s="4">
+        <v>8.5927361E7</v>
+      </c>
+      <c r="C77" s="5">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="B78" s="4">
+        <v>1.6273849E7</v>
+      </c>
+      <c r="C78" s="5">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="B79" s="4">
+        <v>3.9485671E7</v>
+      </c>
+      <c r="C79" s="5">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="B80" s="4">
+        <v>6.2738495E7</v>
+      </c>
+      <c r="C80" s="5">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="B81" s="4">
+        <v>8.5719263E7</v>
+      </c>
+      <c r="C81" s="5">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="B82" s="4">
+        <v>2.9384756E7</v>
+      </c>
+      <c r="C82" s="5">
+        <v>121.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="B83" s="4">
+        <v>1.7482936E7</v>
+      </c>
+      <c r="C83" s="5">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="B84" s="4">
+        <v>8.2917364E7</v>
+      </c>
+      <c r="C84" s="5">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="B85" s="4">
+        <v>2.7384916E7</v>
+      </c>
+      <c r="C85" s="5">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="B86" s="4">
+        <v>2.7384916E7</v>
+      </c>
+      <c r="C86" s="5">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="B87" s="4">
+        <v>2.7384916E7</v>
+      </c>
+      <c r="C87" s="5">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="B88" s="4">
+        <v>3.8491725E7</v>
+      </c>
+      <c r="C88" s="5">
+        <v>127.0</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="B89" s="4">
+        <v>7.2918346E7</v>
+      </c>
+      <c r="C89" s="1">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="B90" s="4">
+        <v>2.9384617E7</v>
+      </c>
+      <c r="C90" s="1">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="B91" s="4">
+        <v>1.847392E7</v>
+      </c>
+      <c r="C91" s="1">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="B92" s="4">
+        <v>4.9283651E7</v>
+      </c>
+      <c r="C92" s="1">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="B93" s="4">
+        <v>1.9384762E7</v>
+      </c>
+      <c r="C93" s="1">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="B94" s="4">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="C94" s="1">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="B95" s="4">
+        <v>2.3456789E7</v>
+      </c>
+      <c r="C95" s="1">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="B96" s="4">
+        <v>3.456789E7</v>
+      </c>
+      <c r="C96" s="1">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="B97" s="4">
+        <v>4.5678901E7</v>
+      </c>
+      <c r="C97" s="1">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="B98" s="4">
+        <v>5.6789012E7</v>
+      </c>
+      <c r="C98" s="5">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="B99" s="4">
+        <v>5.6789012E7</v>
+      </c>
+      <c r="C99" s="5">
+        <v>118.0</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="B100" s="4">
+        <v>5.6789012E7</v>
+      </c>
+      <c r="C100" s="5">
+        <v>121.0</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="B101" s="4">
+        <v>6.7890123E7</v>
+      </c>
+      <c r="C101" s="5">
+        <v>131.0</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="B102" s="4">
+        <v>7.8901234E7</v>
+      </c>
+      <c r="C102" s="5">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="B103" s="4">
+        <v>8.9012345E7</v>
+      </c>
+      <c r="C103" s="5">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="B104" s="4">
+        <v>9.0123456E7</v>
+      </c>
+      <c r="C104" s="5">
+        <v>131.0</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="B105" s="4">
+        <v>1.2345677E7</v>
+      </c>
+      <c r="C105" s="5">
+        <v>121.0</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="B106" s="4">
+        <v>2.1487654E7</v>
+      </c>
+      <c r="C106" s="5">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="B107" s="4">
+        <v>2.0928175E7</v>
+      </c>
+      <c r="C107" s="5">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="B108" s="4">
+        <v>2.1765423E7</v>
+      </c>
+      <c r="C108" s="1">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="B109" s="4">
+        <v>2.0387129E7</v>
+      </c>
+      <c r="C109" s="5">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="B110" s="4">
+        <v>2.1123456E7</v>
+      </c>
+      <c r="C110" s="5">
+        <v>118.0</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="B111" s="4">
+        <v>2.156789E7</v>
+      </c>
+      <c r="C111" s="5">
+        <v>121.0</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="B112" s="4">
+        <v>2.1987654E7</v>
+      </c>
+      <c r="C112" s="5">
+        <v>131.0</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="B113" s="4">
+        <v>2.1987654E7</v>
+      </c>
+      <c r="C113" s="5">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="B114" s="4">
+        <v>1.1111222E7</v>
+      </c>
+      <c r="C114" s="5">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="B115" s="4">
+        <v>2.2223333E7</v>
+      </c>
+      <c r="C115" s="5">
+        <v>121.0</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="B116" s="4">
+        <v>3.3334444E7</v>
+      </c>
+      <c r="C116" s="5">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="B117" s="4">
+        <v>4.4445555E7</v>
+      </c>
+      <c r="C117" s="5">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="B118" s="4">
+        <v>5.5556666E7</v>
+      </c>
+      <c r="C118" s="5">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="B119" s="4">
+        <v>6.6667777E7</v>
+      </c>
+      <c r="C119" s="5">
+        <v>118.0</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="B120" s="4">
+        <v>7.7778888E7</v>
+      </c>
+      <c r="C120" s="5">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="B121" s="4">
+        <v>8.8889999E7</v>
+      </c>
+      <c r="C121" s="5">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="B122" s="4">
+        <v>9.999E7</v>
+      </c>
+      <c r="C122" s="5">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="B123" s="4">
+        <v>1.1112222E7</v>
+      </c>
+      <c r="C123" s="5">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="B124" s="4">
+        <v>1.1112222E7</v>
+      </c>
+      <c r="C124" s="5">
+        <v>118.0</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="B125" s="4">
+        <v>1.1112222E7</v>
+      </c>
+      <c r="C125" s="5">
+        <v>128.0</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="B126" s="4">
+        <v>2.2223333E7</v>
+      </c>
+      <c r="C126" s="1">
+        <v>126.0</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="B127" s="4">
+        <v>3.3334444E7</v>
+      </c>
+      <c r="C127" s="1">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="B128" s="4">
+        <v>1.3047963E7</v>
+      </c>
+      <c r="C128" s="1">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="B129" s="4">
+        <v>2.1479513E7</v>
+      </c>
+      <c r="C129" s="1">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="B130" s="4">
+        <v>1.570238E7</v>
+      </c>
+      <c r="C130" s="1">
+        <v>131.0</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="B131" s="4">
+        <v>1.9073284E7</v>
+      </c>
+      <c r="C131" s="1">
+        <v>132.0</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="B132" s="4">
+        <v>1.6134702E7</v>
+      </c>
+      <c r="C132" s="1">
+        <v>133.0</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="B133" s="4">
+        <v>1.7829051E7</v>
+      </c>
+      <c r="C133" s="1">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="B134" s="4">
+        <v>1.7829051E7</v>
+      </c>
+      <c r="C134" s="1">
+        <v>128.0</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="B135" s="4">
+        <v>1.7829051E7</v>
+      </c>
+      <c r="C135" s="1">
+        <v>112.0</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="C142" s="1"/>
+    </row>
     <row r="143" ht="15.75" customHeight="1"/>
     <row r="144" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
